--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,106 +1427,106 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1536,22 +1536,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1577,29 +1577,89 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>21</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
         <v>22</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>22</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1427,106 +1427,106 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1536,22 +1536,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1577,16 +1577,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1600,66 +1600,6 @@
         </is>
       </c>
       <c r="F39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>22</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>22</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
